--- a/docs/CRUD/Rôles CRUD(excel).xlsx
+++ b/docs/CRUD/Rôles CRUD(excel).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\WazaaGoupeEval\docs\CRUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E06738-82DD-4D3C-A2D8-7E3C477A4401}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310712CB-1CA5-49F0-80A5-10BC687EAB5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Développeur</t>
   </si>
@@ -115,8 +115,66 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>UD</t>
+    </r>
+  </si>
+  <si>
+    <t>*:Lié id internautes au commentaire</t>
+  </si>
+  <si>
+    <t>CRUD*</t>
+  </si>
+  <si>
+    <t>**: Il peut voir et modifier uniquement ses informations personnelles</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>U</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CRUD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>***</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -125,63 +183,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UD</t>
-    </r>
-  </si>
-  <si>
-    <t>*:Lié id internautes au commentaire</t>
-  </si>
-  <si>
-    <t>CRUD*</t>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
+      <t>CRUD</t>
     </r>
     <r>
       <rPr>
@@ -191,53 +193,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <t>**: Il peut voir et modifier uniquement ses informations personnelles</t>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
+      <t>****</t>
+    </r>
+  </si>
+  <si>
+    <t>****L'internaute crée son compte et peut le supprimer</t>
+  </si>
+  <si>
+    <t>***CUD disponible pour un employé spécifique, R pour tous</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +236,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,7 +252,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -299,19 +276,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -404,24 +368,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,16 +696,16 @@
     <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5546875" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -738,7 +721,7 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -767,34 +750,34 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="12" t="s">
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -802,34 +785,34 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="C5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="H5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -837,70 +820,89 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>17</v>
+      <c r="H6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="I8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="14"/>
+      <c r="E8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="I8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="22"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="I10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="4"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="5"/>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="4"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="5"/>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I8:L8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
